--- a/paper-mgr/src/main/resources/excel/template2013.xlsx
+++ b/paper-mgr/src/main/resources/excel/template2013.xlsx
@@ -19,9 +19,6 @@
     <t>广州市纸联纸业有限公司(送货单）</t>
   </si>
   <si>
-    <t>地址：广州市增城区新塘镇白江村广虎路1号电话：020-32179875传真：020-32179876</t>
-  </si>
-  <si>
     <t>送货单号：</t>
   </si>
   <si>
@@ -102,6 +99,10 @@
   <si>
     <t>送货员：</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：广州市增城区新塘镇光华路一横街7号电话：020-32179875传真：020-32179876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -153,35 +154,41 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -777,7 +784,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -808,7 +815,7 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="21.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -821,7 +828,7 @@
     </row>
     <row r="3" spans="1:9" ht="20.25" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
@@ -829,14 +836,14 @@
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -844,37 +851,37 @@
       <c r="E4" s="31"/>
       <c r="F4" s="32"/>
       <c r="G4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="I5" s="17"/>
     </row>
@@ -946,14 +953,14 @@
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="44"/>
       <c r="F12" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="13"/>
@@ -961,7 +968,7 @@
     </row>
     <row r="13" spans="1:9" ht="23.25" customHeight="1">
       <c r="A13" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -970,13 +977,13 @@
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
       <c r="H13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -989,7 +996,7 @@
     </row>
     <row r="15" spans="1:9" ht="31.5" customHeight="1">
       <c r="A15" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1002,7 +1009,7 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -1011,22 +1018,22 @@
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
       <c r="H16" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="26"/>
       <c r="F17" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="29"/>
